--- a/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.2331483567873368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1899241499964485</v>
+        <v>0.1899241499964484</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1120289045362864</v>
+        <v>0.1132103728907273</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1978858383342102</v>
+        <v>0.1985083257382826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1632812962537853</v>
+        <v>0.1644431498503162</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1877826009295689</v>
+        <v>0.1902588491833734</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2731662690402065</v>
+        <v>0.275236382010798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2163163499649527</v>
+        <v>0.2158894745006578</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1607077792640166</v>
+        <v>0.1614950058820397</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3393511079681409</v>
+        <v>0.3408516109384794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2591367202155759</v>
+        <v>0.2611564735644681</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.240531056259802</v>
+        <v>0.244788841875908</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4184410000885082</v>
+        <v>0.4153744621602694</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3203275346191368</v>
+        <v>0.3195402963960973</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2194153905170836</v>
+        <v>0.2272386469802295</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3828265577059212</v>
+        <v>0.3853917270616593</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3193939222934483</v>
+        <v>0.3219940972136003</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3106073108211044</v>
+        <v>0.31648943086072</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4732634524381055</v>
+        <v>0.4689897238534548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3841112078496916</v>
+        <v>0.385619199675173</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.172819930160011</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3676408988993828</v>
+        <v>0.3676408988993829</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2762110058805995</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1334110769242805</v>
+        <v>0.1325376598050849</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3294309206342406</v>
+        <v>0.3256904746217228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2457237356238897</v>
+        <v>0.2447849400270742</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.224709923095123</v>
+        <v>0.2171408343347527</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4136862999164816</v>
+        <v>0.41501153604414</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3084566327244055</v>
+        <v>0.3073414852603345</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1857667452962618</v>
+        <v>0.1857667452962617</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3682338441525976</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1452855798744692</v>
+        <v>0.1448250986952256</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3220407489457415</v>
+        <v>0.3230709508489381</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2507799924414215</v>
+        <v>0.2513970377513805</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2353934331624652</v>
+        <v>0.2319240118844917</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4154850777759027</v>
+        <v>0.4135168035295398</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3167362527648148</v>
+        <v>0.3140148904840461</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.3249318118465236</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.4616265244475625</v>
+        <v>0.4616265244475622</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.3923895344661781</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2738176867678093</v>
+        <v>0.2744434856830023</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.410252213175013</v>
+        <v>0.4160743359102605</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3554548899373799</v>
+        <v>0.3581613245432094</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3749550599675875</v>
+        <v>0.3735267122655373</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.505656995667174</v>
+        <v>0.5058842049148924</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4283003683079908</v>
+        <v>0.4291340760744423</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.3189114577067088</v>
+        <v>0.3189114577067089</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.5785180148966907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4532716594229757</v>
+        <v>0.4532716594229758</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2805707240714777</v>
+        <v>0.2808886212856916</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5473130832489238</v>
+        <v>0.545183826214528</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4267391421969719</v>
+        <v>0.4244409431789808</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3589683800216126</v>
+        <v>0.3607317777321217</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6117440245309947</v>
+        <v>0.6107628902094623</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4808209796567969</v>
+        <v>0.4799584457750162</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1905964993589843</v>
+        <v>0.1905964993589842</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.3310743151844032</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.164022584031033</v>
+        <v>0.1625574764893394</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3025593469563213</v>
+        <v>0.3029488386869812</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2420593621632081</v>
+        <v>0.2417892630070112</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2191387075560163</v>
+        <v>0.217970087701336</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3578409396583241</v>
+        <v>0.3602798106757107</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2829842083439439</v>
+        <v>0.2824368339198918</v>
       </c>
     </row>
     <row r="28">
@@ -1010,7 +1010,7 @@
         <v>0.4055073583044776</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.3197644847210012</v>
+        <v>0.3197644847210011</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2142706609707715</v>
+        <v>0.2149531800210417</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3911867257992023</v>
+        <v>0.3917298650096089</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.309125408094979</v>
+        <v>0.3087622451267478</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2446200034379024</v>
+        <v>0.2441449508816937</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4186926124726777</v>
+        <v>0.4190250512978294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3310578385513819</v>
+        <v>0.3290108820829493</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35720</v>
+        <v>36097</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>62544</v>
+        <v>62741</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>103668</v>
+        <v>104406</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>59874</v>
+        <v>60663</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>86337</v>
+        <v>86991</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>137341</v>
+        <v>137070</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>85279</v>
+        <v>85697</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>185453</v>
+        <v>186273</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>279127</v>
+        <v>281302</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>127637</v>
+        <v>129896</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>228675</v>
+        <v>227000</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>345038</v>
+        <v>344190</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>69334</v>
+        <v>71806</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>136432</v>
+        <v>137346</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>214752</v>
+        <v>216501</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>98150</v>
+        <v>100008</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>168662</v>
+        <v>167139</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>258267</v>
+        <v>259281</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49782</v>
+        <v>49456</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>139007</v>
+        <v>137429</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>195377</v>
+        <v>194630</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83849</v>
+        <v>81025</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>174559</v>
+        <v>175119</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>245256</v>
+        <v>244369</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29880</v>
+        <v>29785</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>73721</v>
+        <v>73957</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>108984</v>
+        <v>109253</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48412</v>
+        <v>47699</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>95112</v>
+        <v>94661</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>137648</v>
+        <v>136465</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>74124</v>
+        <v>74294</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>108204</v>
+        <v>109740</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>189975</v>
+        <v>191422</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>101503</v>
+        <v>101116</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>133367</v>
+        <v>133427</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>228908</v>
+        <v>229354</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>201923</v>
+        <v>202152</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>422557</v>
+        <v>420913</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>636586</v>
+        <v>633157</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>258345</v>
+        <v>259614</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>472301</v>
+        <v>471544</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>717262</v>
+        <v>715975</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>130902</v>
+        <v>129733</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>251527</v>
+        <v>251851</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>394412</v>
+        <v>393972</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>174888</v>
+        <v>173956</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>297484</v>
+        <v>299512</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>461095</v>
+        <v>460203</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>756967</v>
+        <v>759378</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1461847</v>
+        <v>1463876</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2247254</v>
+        <v>2244614</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>864184</v>
+        <v>862506</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1564635</v>
+        <v>1565877</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2406696</v>
+        <v>2391816</v>
       </c>
     </row>
     <row r="40">
